--- a/Assets/StreamingAssets/GameData/Maps/CharacterMap.xlsx
+++ b/Assets/StreamingAssets/GameData/Maps/CharacterMap.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>编号</t>
   </si>
@@ -22,27 +35,24 @@
     <t>名字</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>颜色</t>
   </si>
   <si>
     <t>南希</t>
+  </si>
+  <si>
+    <t>#D8BAFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -500,19 +510,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,20 +977,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,28 +1000,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>216</v>
-      </c>
-      <c r="D2">
-        <v>186</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/GameData/Maps/CharacterMap.xlsx
+++ b/Assets/StreamingAssets/GameData/Maps/CharacterMap.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Color" sheetId="1" r:id="rId1"/>
+    <sheet name="Name" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,21 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>编号</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>#D8BAFF</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
-    <t>颜色</t>
-  </si>
-  <si>
     <t>南希</t>
-  </si>
-  <si>
-    <t>#D8BAFF</t>
   </si>
 </sst>
 </file>
@@ -977,43 +978,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Assets/StreamingAssets/GameData/Maps/CharacterMap.xlsx
+++ b/Assets/StreamingAssets/GameData/Maps/CharacterMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>编号</t>
   </si>
@@ -39,10 +39,25 @@
     <t>#D8BAFF</t>
   </si>
   <si>
+    <t>#BD001D</t>
+  </si>
+  <si>
+    <t>#7C7D67</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
     <t>南希</t>
+  </si>
+  <si>
+    <t>龙哥</t>
+  </si>
+  <si>
+    <t>劳登</t>
+  </si>
+  <si>
+    <t>阿仔</t>
   </si>
 </sst>
 </file>
@@ -978,13 +993,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -1005,6 +1020,27 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1016,20 +1052,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1037,7 +1073,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
